--- a/Data_for_project/data_fertilizer.xlsx
+++ b/Data_for_project/data_fertilizer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aflam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FCE6E0-C3EE-4FAF-A9A2-96D06EBF3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C379671-8D71-440F-AC63-E1C4FDF28928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EAEC887E-FDDD-4141-AAF5-13A7D3A5D933}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>District</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Rajshahi</t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -273,7 +276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -349,7 +352,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$C$21</c:f>
+              <c:f>Sheet1!$D$12:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -425,7 +428,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$C$31</c:f>
+              <c:f>Sheet1!$D$22:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -501,7 +504,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$32:$C$41</c:f>
+              <c:f>Sheet1!$D$32:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -577,7 +580,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$42:$C$51</c:f>
+              <c:f>Sheet1!$D$42:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -653,7 +656,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$52:$C$61</c:f>
+              <c:f>Sheet1!$D$52:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -735,7 +738,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$62:$C$71</c:f>
+              <c:f>Sheet1!$D$62:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1082,7 +1085,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1121,7 +1124,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1197,7 +1200,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$12:$D$21</c:f>
+              <c:f>Sheet1!$E$12:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1273,7 +1276,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$D$31</c:f>
+              <c:f>Sheet1!$E$22:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1349,7 +1352,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$32:$D$41</c:f>
+              <c:f>Sheet1!$E$32:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1425,7 +1428,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$42:$D$51</c:f>
+              <c:f>Sheet1!$E$42:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1501,7 +1504,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$52:$D$61</c:f>
+              <c:f>Sheet1!$E$52:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1583,7 +1586,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$62:$D$71</c:f>
+              <c:f>Sheet1!$E$62:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1954,7 +1957,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1993,7 +1996,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2069,7 +2072,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$12:$E$21</c:f>
+              <c:f>Sheet1!$F$12:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2145,7 +2148,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$22:$E$31</c:f>
+              <c:f>Sheet1!$F$22:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2221,7 +2224,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$32:$E$41</c:f>
+              <c:f>Sheet1!$F$32:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2297,7 +2300,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$42:$E$51</c:f>
+              <c:f>Sheet1!$F$42:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2373,7 +2376,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$52:$E$61</c:f>
+              <c:f>Sheet1!$F$52:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2455,7 +2458,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$62:$E$71</c:f>
+              <c:f>Sheet1!$F$62:$F$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2826,7 +2829,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2865,7 +2868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2941,7 +2944,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$12:$F$21</c:f>
+              <c:f>Sheet1!$G$12:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3017,7 +3020,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$22:$F$31</c:f>
+              <c:f>Sheet1!$G$22:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3093,7 +3096,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$F$41</c:f>
+              <c:f>Sheet1!$G$32:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3169,7 +3172,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$42:$F$51</c:f>
+              <c:f>Sheet1!$G$42:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3245,7 +3248,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$52:$F$61</c:f>
+              <c:f>Sheet1!$G$52:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3327,7 +3330,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$62:$F$71</c:f>
+              <c:f>Sheet1!$G$62:$G$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5822,13 +5825,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -5858,13 +5861,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -5894,13 +5897,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -5930,13 +5933,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -6264,1437 +6267,1650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73346DC5-1370-4BD3-A3BD-A88F84A04932}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10101</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2008</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>30273</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5068</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5113</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3031</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10102</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2009</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>30266</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5122</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5277</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3114</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10103</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2010</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>30464</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5044</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5147</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2864</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10104</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2011</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>30205</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5129</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5488</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3244</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10105</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2012</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>30724</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5200</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5840</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3804</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10106</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2013</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>30294</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5094</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5155</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10107</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2014</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>30914</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5398</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5552</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3582</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10108</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2015</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>30530</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5391</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5314</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3939</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10109</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2016</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>31056</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5227</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5836</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3450</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10110</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2017</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>30691</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5378</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5062</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3299</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10111</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2008</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>91562</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>19022</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20143</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>8809</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10112</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2009</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>88769</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>17126</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>18791</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>9171</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10113</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2010</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>91923</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>18601</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>20775</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9526</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10114</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2011</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>93730</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>19362</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>17605</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>9765</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10115</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2012</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>91285</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>18985</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>19294</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>9068</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10116</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2013</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>89379</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>20598</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>18579</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>8782</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10117</v>
+      </c>
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>2014</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>91374</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>19201</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>20293</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9153</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10118</v>
+      </c>
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2015</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>88951</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>20126</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>19254</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9795</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10119</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2016</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>93695</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>20181</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>18682</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>10088</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10120</v>
+      </c>
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2017</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>93368</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>20321</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>18243</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9511</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10121</v>
+      </c>
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2008</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>25967</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>8262</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>4808</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1573</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10122</v>
+      </c>
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>2009</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>29300</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>8041</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5396</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1578</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10123</v>
+      </c>
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2010</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>27967</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>8675</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4822</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1688</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10124</v>
+      </c>
+      <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2011</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>36991</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>9386</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5553</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1628</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10125</v>
+      </c>
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>2012</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>32966</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>8166</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>5498</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1925</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10126</v>
+      </c>
+      <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>2013</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>30332</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>9188</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>5490</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1941</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10127</v>
+      </c>
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>2014</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>35321</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>9233</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>5369</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1926</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10128</v>
+      </c>
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>2015</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>30750</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>9544</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>5684</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1586</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10129</v>
+      </c>
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>2016</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>36712</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>9094</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5705</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1987</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10130</v>
+      </c>
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>2017</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>37382</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>8782</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>5410</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1903</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10131</v>
+      </c>
+      <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>2008</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>16992</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>7954</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7026</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>443</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>10132</v>
+      </c>
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>2009</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>16920</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>7834</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>6936</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>10133</v>
+      </c>
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>2010</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>17014</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>8075</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>7209</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10134</v>
+      </c>
+      <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>2011</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>17384</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>8313</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>7374</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>602</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10135</v>
+      </c>
+      <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>2012</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>17149</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>8408</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>7510</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>732</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>10136</v>
+      </c>
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>2013</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>17610</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>8707</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>7653</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10137</v>
+      </c>
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>2014</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>17220</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>8897</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>8058</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>657</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10138</v>
+      </c>
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>2015</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>17964</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>9125</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>7798</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>711</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10139</v>
+      </c>
+      <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>2016</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>18221</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>8356</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>7730</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>566</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>10140</v>
+      </c>
+      <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>2017</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>17835</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>8771</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>8100</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>10141</v>
+      </c>
+      <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>2008</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>120279</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>34007</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>47121</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>28723</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10142</v>
+      </c>
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>2009</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>120936</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>42363</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>42428</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>30791</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10143</v>
+      </c>
+      <c r="B44" t="s">
         <v>12</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>2010</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>119974</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>32347</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>49366</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>29182</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>10144</v>
+      </c>
+      <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>2011</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>120944</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>41236</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>44949</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>30009</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>10145</v>
+      </c>
+      <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>2012</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>118950</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>47006</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>52921</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>31153</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>10146</v>
+      </c>
+      <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>2013</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>123953</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>45664</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>43889</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>30172</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>10147</v>
+      </c>
+      <c r="B48" t="s">
         <v>12</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>2014</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>111792</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>45750</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>40792</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>31212</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>10148</v>
+      </c>
+      <c r="B49" t="s">
         <v>12</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>2015</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>116294</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>48421</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>51950</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>30842</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>10149</v>
+      </c>
+      <c r="B50" t="s">
         <v>12</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>2016</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>124574</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>48162</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>45582</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>31785</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>10150</v>
+      </c>
+      <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>2017</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>130393</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>49248</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>53832</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>30994</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>10151</v>
+      </c>
+      <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>2008</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>29264</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>9225</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>9057</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>5721</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>10152</v>
+      </c>
+      <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>2009</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>29059</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>9658</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>9007</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>5604</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10153</v>
+      </c>
+      <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>2010</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>29295</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>9435</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>9140</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>5967</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>10154</v>
+      </c>
+      <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>2011</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>29457</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>9866</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>9041</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>5831</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>10155</v>
+      </c>
+      <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>2012</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>29105</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>9857</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>9177</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>5927</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>10156</v>
+      </c>
+      <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>2013</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>29301</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>9704</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>9270</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>5990</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>10157</v>
+      </c>
+      <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>2014</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>29564</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>9578</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>9139</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>5970</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>10158</v>
+      </c>
+      <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>2015</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>29543</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>9626</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>9453</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>5865</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>10159</v>
+      </c>
+      <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>2016</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>29159</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>9416</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>9491</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>5837</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>10160</v>
+      </c>
+      <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>2017</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>29558</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>9880</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>9170</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>5849</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>10161</v>
+      </c>
+      <c r="B62" t="s">
         <v>11</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>2008</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>48522</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>13993</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>9646</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>6030</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>10162</v>
+      </c>
+      <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>2009</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>55839</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>10939</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>10321</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>3647</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>10163</v>
+      </c>
+      <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>2010</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>69834</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>14890</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>18374</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>5455</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>10164</v>
+      </c>
+      <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>2011</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>65338</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>14518</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>11410</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>6349</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>10165</v>
+      </c>
+      <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>2012</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>66013</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>20332</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>16690</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>6860</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>10166</v>
+      </c>
+      <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>2013</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>68183</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>13092</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>14431</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>7698</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>10167</v>
+      </c>
+      <c r="B68" t="s">
         <v>11</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>2014</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>53602</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>11112</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>14965</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>6596</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>10168</v>
+      </c>
+      <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>2015</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>64666</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>13232</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>16554</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>6746</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>10169</v>
+      </c>
+      <c r="B70" t="s">
         <v>11</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>2016</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>70372</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>19507</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>17138</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>8170</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>10170</v>
+      </c>
+      <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>2017</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>61581</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>14561</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>21016</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>6921</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
-    <sortCondition ref="A1:A80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G80">
+    <sortCondition ref="B1:B80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
